--- a/Resource/Excel/report_total.xlsx
+++ b/Resource/Excel/report_total.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
@@ -1259,6 +1259,114 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>855764041418</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Message not found or Archived for another partner</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2024-07-26 09:09:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>855764045818</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Message not found or Archived for another partner</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2024-07-26 09:11:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>855764041418</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Message not found or Archived for another partner</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2024-07-26 09:09:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>855764045818</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Message not found or Archived for another partner</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2024-07-26 09:11:31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Resource/Excel/report_total.xlsx
+++ b/Resource/Excel/report_total.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
@@ -1475,6 +1475,114 @@
         </is>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>855764043801</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Message not found or Archived for another partner</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2024-07-26 09:37:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>855764041280</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Message not found or Archived for another partner</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2024-07-26 09:38:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>855764046186</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Message not found or Archived for another partner</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2024-07-26 09:37:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>855764048199</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>failed</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Message not found or Archived for another partner</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2024-07-26 09:38:50</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
